--- a/df_C_result.xlsx
+++ b/df_C_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0002690227278023867</v>
+        <v>-0.0001658701565549897</v>
       </c>
       <c r="D2">
-        <v>0.9750593054258017</v>
+        <v>0.9841478695771412</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0004786654955449007</v>
+        <v>-0.0003293476869256861</v>
       </c>
       <c r="D3">
-        <v>0.9844057025088047</v>
+        <v>0.9893563770901038</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.0003990731809724119</v>
+        <v>0.001485312452776666</v>
       </c>
       <c r="D4">
-        <v>0.9796210438246811</v>
+        <v>0.9227580399073519</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.02752652779139598</v>
+        <v>-0.0003474025726281464</v>
       </c>
       <c r="D5">
-        <v>0.0728342667206814</v>
+        <v>0.9814113648820749</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>-0.0003815213882733316</v>
+        <v>0.00168478525018243</v>
       </c>
       <c r="D6">
-        <v>0.9756646891248749</v>
+        <v>0.8923946532065553</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/df_C_result.xlsx
+++ b/df_C_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0001658701565549897</v>
+        <v>-0.0004513183721052139</v>
       </c>
       <c r="D2">
-        <v>0.9841478695771412</v>
+        <v>0.9561007724072521</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003293476869256861</v>
+        <v>-0.0003837539088316633</v>
       </c>
       <c r="D3">
-        <v>0.9893563770901038</v>
+        <v>0.9864744847310158</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001485312452776666</v>
+        <v>0.002389388355590733</v>
       </c>
       <c r="D4">
-        <v>0.9227580399073519</v>
+        <v>0.8724879114009996</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0003474025726281464</v>
+        <v>-0.0002877013390280084</v>
       </c>
       <c r="D5">
-        <v>0.9814113648820749</v>
+        <v>0.9840539981221307</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.00168478525018243</v>
+        <v>0.006587850910896115</v>
       </c>
       <c r="D6">
-        <v>0.8923946532065553</v>
+        <v>0.5806456563770318</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/df_C_result.xlsx
+++ b/df_C_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.0004513183721052139</v>
+        <v>-6.903932323930329E-05</v>
       </c>
       <c r="D2">
-        <v>0.9561007724072521</v>
+        <v>0.9934002363885324</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003837539088316633</v>
+        <v>-0.0003408162077951037</v>
       </c>
       <c r="D3">
-        <v>0.9864744847310158</v>
+        <v>0.9889835163895575</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.002389388355590733</v>
+        <v>0.001551494666656383</v>
       </c>
       <c r="D4">
-        <v>0.8724879114009996</v>
+        <v>0.9193113886818179</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0002877013390280084</v>
+        <v>-0.0002915696169488551</v>
       </c>
       <c r="D5">
-        <v>0.9840539981221307</v>
+        <v>0.9843952371685187</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.006587850910896115</v>
+        <v>0.001692090757938141</v>
       </c>
       <c r="D6">
-        <v>0.5806456563770318</v>
+        <v>0.8919089551851628</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/df_C_result.xlsx
+++ b/df_C_result.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-6.903932323930329E-05</v>
+        <v>-0.0004971455645304962</v>
       </c>
       <c r="D2">
-        <v>0.9934002363885324</v>
+        <v>0.9525677555664213</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0003408162077951037</v>
+        <v>-0.0008740844278676506</v>
       </c>
       <c r="D3">
-        <v>0.9889835163895575</v>
+        <v>0.9717896121188512</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.001551494666656383</v>
+        <v>0.001229920098211656</v>
       </c>
       <c r="D4">
-        <v>0.9193113886818179</v>
+        <v>0.936081577752135</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.0002915696169488551</v>
+        <v>-0.0007776053817073435</v>
       </c>
       <c r="D5">
-        <v>0.9843952371685187</v>
+        <v>0.9584553644713206</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.001692090757938141</v>
+        <v>0.001662843287242593</v>
       </c>
       <c r="D6">
-        <v>0.8919089551851628</v>
+        <v>0.8939095177604138</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
